--- a/GPTIVB4/rbg correctorexcel.xlsx
+++ b/GPTIVB4/rbg correctorexcel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="1">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -37,6 +37,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -231,7 +232,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -241,582 +242,611 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="n">
-        <v>581</v>
+        <v>554</v>
       </c>
       <c r="B1" s="2" t="n">
-        <v>492</v>
+        <v>604</v>
       </c>
       <c r="C1" s="3" t="n">
-        <v>461</v>
+        <v>538</v>
       </c>
       <c r="D1" s="4" t="n">
-        <v>415</v>
+        <v>458</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="n">
         <f aca="false">A1-D1</f>
-        <v>166</v>
+        <v>96</v>
       </c>
       <c r="G1" s="5" t="n">
         <f aca="false">B1-D1</f>
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="H1" s="3" t="n">
         <f aca="false">C1-D1</f>
-        <v>46</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>487</v>
+        <v>624</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>471</v>
+        <v>528</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>421</v>
+        <v>483</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="n">
         <f aca="false">A2-D2</f>
-        <v>170</v>
+        <v>117</v>
       </c>
       <c r="G2" s="5" t="n">
         <f aca="false">B2-D2</f>
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="H2" s="3" t="n">
         <f aca="false">C2-D2</f>
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="B3" s="2" t="n">
+        <v>622</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>517</v>
+      </c>
+      <c r="D3" s="4" t="n">
         <v>489</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>471</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>431</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="n">
         <f aca="false">A3-D3</f>
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="G3" s="5" t="n">
         <f aca="false">B3-D3</f>
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="H3" s="3" t="n">
         <f aca="false">C3-D3</f>
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>477</v>
+        <v>607</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>464</v>
+        <v>521</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>409</v>
+        <v>458</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
         <f aca="false">A4-D4</f>
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="G4" s="5" t="n">
         <f aca="false">B4-D4</f>
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="H4" s="3" t="n">
         <f aca="false">C4-D4</f>
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>573</v>
+        <v>597</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>476</v>
+        <v>625</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>449</v>
+        <v>531</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>418</v>
+        <v>485</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
         <f aca="false">A5-D5</f>
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="G5" s="5" t="n">
         <f aca="false">B5-D5</f>
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="H5" s="3" t="n">
         <f aca="false">C5-D5</f>
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>466</v>
+        <v>606</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>432</v>
+        <v>526</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>444</v>
+        <v>472</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="1" t="n">
         <f aca="false">A6-D6</f>
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="G6" s="5" t="n">
         <f aca="false">B6-D6</f>
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="H6" s="3" t="n">
         <f aca="false">C6-D6</f>
-        <v>-12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>596</v>
+        <v>577</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>468</v>
+        <v>605</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>468</v>
+        <v>529</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>432</v>
+        <v>464</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F7" s="1" t="n">
         <f aca="false">A7-D7</f>
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="G7" s="5" t="n">
         <f aca="false">B7-D7</f>
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="H7" s="3" t="n">
         <f aca="false">C7-D7</f>
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>444</v>
+        <v>630</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>470</v>
+        <v>526</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>407</v>
+        <v>457</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="1" t="n">
         <f aca="false">A8-D8</f>
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="G8" s="5" t="n">
         <f aca="false">B8-D8</f>
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="H8" s="3" t="n">
         <f aca="false">C8-D8</f>
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>452</v>
+        <v>612</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>461</v>
+        <v>520</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>415</v>
+        <v>459</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F9" s="1" t="n">
         <f aca="false">A9-D9</f>
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="G9" s="5" t="n">
         <f aca="false">B9-D9</f>
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="H9" s="3" t="n">
         <f aca="false">C9-D9</f>
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>571</v>
+        <v>600</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>459</v>
+        <v>612</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>435</v>
+        <v>525</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>421</v>
+        <v>475</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F10" s="1" t="n">
         <f aca="false">A10-D10</f>
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="G10" s="5" t="n">
         <f aca="false">B10-D10</f>
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="H10" s="3" t="n">
         <f aca="false">C10-D10</f>
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>434</v>
+        <v>506</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>427</v>
+        <v>471</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="1" t="n">
         <f aca="false">A11-D11</f>
-        <v>155</v>
+        <v>103</v>
       </c>
       <c r="G11" s="5" t="n">
         <f aca="false">B11-D11</f>
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="H11" s="3" t="n">
         <f aca="false">C11-D11</f>
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>451</v>
+        <v>615</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>471</v>
+        <v>519</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>413</v>
+        <v>463</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="1" t="n">
         <f aca="false">A12-D12</f>
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="G12" s="5" t="n">
         <f aca="false">B12-D12</f>
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="H12" s="3" t="n">
         <f aca="false">C12-D12</f>
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>447</v>
+        <v>602</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>458</v>
+        <v>514</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>437</v>
+        <v>465</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="1" t="n">
         <f aca="false">A13-D13</f>
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="G13" s="5" t="n">
         <f aca="false">B13-D13</f>
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="H13" s="3" t="n">
         <f aca="false">C13-D13</f>
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>463</v>
+        <v>606</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>441</v>
+        <v>506</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>422</v>
+        <v>477</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="1" t="n">
         <f aca="false">A14-D14</f>
-        <v>172</v>
+        <v>103</v>
       </c>
       <c r="G14" s="5" t="n">
         <f aca="false">B14-D14</f>
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="H14" s="3" t="n">
         <f aca="false">C14-D14</f>
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>454</v>
+        <v>604</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>427</v>
+        <v>536</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="1" t="n">
         <f aca="false">A15-D15</f>
-        <v>152</v>
+        <v>89</v>
       </c>
       <c r="G15" s="5" t="n">
         <f aca="false">B15-D15</f>
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="H15" s="3" t="n">
         <f aca="false">C15-D15</f>
-        <v>-2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>452</v>
+        <v>581</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>442</v>
+        <v>518</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>421</v>
+        <v>464</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F16" s="1" t="n">
         <f aca="false">A16-D16</f>
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="G16" s="5" t="n">
         <f aca="false">B16-D16</f>
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="H16" s="3" t="n">
         <f aca="false">C16-D16</f>
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <v>562</v>
+        <v>576</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>450</v>
+        <v>582</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>448</v>
+        <v>531</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>400</v>
+        <v>463</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F17" s="1" t="n">
         <f aca="false">A17-D17</f>
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="G17" s="5" t="n">
         <f aca="false">B17-D17</f>
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="H17" s="3" t="n">
         <f aca="false">C17-D17</f>
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>460</v>
+        <v>602</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>458</v>
+        <v>525</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>407</v>
+        <v>476</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F18" s="1" t="n">
         <f aca="false">A18-D18</f>
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="G18" s="5" t="n">
         <f aca="false">B18-D18</f>
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="H18" s="3" t="n">
         <f aca="false">C18-D18</f>
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>434</v>
+        <v>614</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>458</v>
+        <v>570</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>412</v>
+        <v>466</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F19" s="1" t="n">
         <f aca="false">A19-D19</f>
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="G19" s="5" t="n">
         <f aca="false">B19-D19</f>
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="H19" s="3" t="n">
         <f aca="false">C19-D19</f>
-        <v>46</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <v>587</v>
+        <v>601</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>457</v>
+        <v>612</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>446</v>
+        <v>591</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>422</v>
+        <v>501</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F20" s="1" t="n">
         <f aca="false">A20-D20</f>
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="G20" s="5" t="n">
         <f aca="false">B20-D20</f>
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="H20" s="3" t="n">
         <f aca="false">C20-D20</f>
-        <v>24</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>587</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>598</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>530</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>458</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <f aca="false">AVERAGE(F1:F20)</f>
+        <v>113.35</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <f aca="false">AVERAGE(G1:G20)</f>
+        <v>136.95</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <f aca="false">AVERAGE(H1:H20)</f>
+        <v>57.55</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/GPTIVB4/rbg correctorexcel.xlsx
+++ b/GPTIVB4/rbg correctorexcel.xlsx
@@ -232,7 +232,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -242,611 +242,611 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="n">
-        <v>554</v>
+        <v>672</v>
       </c>
       <c r="B1" s="2" t="n">
-        <v>604</v>
+        <v>679</v>
       </c>
       <c r="C1" s="3" t="n">
-        <v>538</v>
+        <v>645</v>
       </c>
       <c r="D1" s="4" t="n">
-        <v>458</v>
+        <v>616</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="n">
         <f aca="false">A1-D1</f>
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="G1" s="5" t="n">
         <f aca="false">B1-D1</f>
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H1" s="3" t="n">
         <f aca="false">C1-D1</f>
-        <v>80</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>600</v>
+        <v>670</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>624</v>
+        <v>693</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>528</v>
+        <v>632</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>483</v>
+        <v>616</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="n">
         <f aca="false">A2-D2</f>
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="G2" s="5" t="n">
         <f aca="false">B2-D2</f>
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="H2" s="3" t="n">
         <f aca="false">C2-D2</f>
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>599</v>
+        <v>678</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>622</v>
+        <v>689</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>517</v>
+        <v>659</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>489</v>
+        <v>614</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="n">
         <f aca="false">A3-D3</f>
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="G3" s="5" t="n">
         <f aca="false">B3-D3</f>
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="H3" s="3" t="n">
         <f aca="false">C3-D3</f>
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>599</v>
+        <v>675</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>607</v>
+        <v>688</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>521</v>
+        <v>650</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>458</v>
+        <v>617</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
         <f aca="false">A4-D4</f>
-        <v>141</v>
+        <v>58</v>
       </c>
       <c r="G4" s="5" t="n">
         <f aca="false">B4-D4</f>
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="H4" s="3" t="n">
         <f aca="false">C4-D4</f>
-        <v>63</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>597</v>
+        <v>674</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>625</v>
+        <v>689</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>531</v>
+        <v>649</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>485</v>
+        <v>628</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
         <f aca="false">A5-D5</f>
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="G5" s="5" t="n">
         <f aca="false">B5-D5</f>
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="H5" s="3" t="n">
         <f aca="false">C5-D5</f>
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>586</v>
+        <v>681</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>606</v>
+        <v>687</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>526</v>
+        <v>666</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>472</v>
+        <v>621</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="1" t="n">
         <f aca="false">A6-D6</f>
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="G6" s="5" t="n">
         <f aca="false">B6-D6</f>
-        <v>134</v>
+        <v>66</v>
       </c>
       <c r="H6" s="3" t="n">
         <f aca="false">C6-D6</f>
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>577</v>
+        <v>675</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>605</v>
+        <v>695</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>529</v>
+        <v>646</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>464</v>
+        <v>619</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F7" s="1" t="n">
         <f aca="false">A7-D7</f>
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="G7" s="5" t="n">
         <f aca="false">B7-D7</f>
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="H7" s="3" t="n">
         <f aca="false">C7-D7</f>
-        <v>65</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>587</v>
+        <v>683</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>630</v>
+        <v>684</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>526</v>
+        <v>673</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>457</v>
+        <v>637</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="1" t="n">
         <f aca="false">A8-D8</f>
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="G8" s="5" t="n">
         <f aca="false">B8-D8</f>
-        <v>173</v>
+        <v>47</v>
       </c>
       <c r="H8" s="3" t="n">
         <f aca="false">C8-D8</f>
-        <v>69</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>582</v>
+        <v>696</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>612</v>
+        <v>690</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>520</v>
+        <v>682</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>459</v>
+        <v>632</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F9" s="1" t="n">
         <f aca="false">A9-D9</f>
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="G9" s="5" t="n">
         <f aca="false">B9-D9</f>
-        <v>153</v>
+        <v>58</v>
       </c>
       <c r="H9" s="3" t="n">
         <f aca="false">C9-D9</f>
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>600</v>
+        <v>693</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>612</v>
+        <v>698</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>525</v>
+        <v>689</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>475</v>
+        <v>630</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F10" s="1" t="n">
         <f aca="false">A10-D10</f>
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="G10" s="5" t="n">
         <f aca="false">B10-D10</f>
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="H10" s="3" t="n">
         <f aca="false">C10-D10</f>
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>574</v>
+        <v>691</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>506</v>
+        <v>660</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>471</v>
+        <v>620</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="1" t="n">
         <f aca="false">A11-D11</f>
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="G11" s="5" t="n">
         <f aca="false">B11-D11</f>
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="H11" s="3" t="n">
         <f aca="false">C11-D11</f>
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>597</v>
+        <v>685</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>615</v>
+        <v>689</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>519</v>
+        <v>649</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>463</v>
+        <v>619</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="1" t="n">
         <f aca="false">A12-D12</f>
-        <v>134</v>
+        <v>66</v>
       </c>
       <c r="G12" s="5" t="n">
         <f aca="false">B12-D12</f>
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="H12" s="3" t="n">
         <f aca="false">C12-D12</f>
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
-        <v>581</v>
+        <v>679</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>602</v>
+        <v>687</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>514</v>
+        <v>660</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>465</v>
+        <v>623</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="1" t="n">
         <f aca="false">A13-D13</f>
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="G13" s="5" t="n">
         <f aca="false">B13-D13</f>
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="H13" s="3" t="n">
         <f aca="false">C13-D13</f>
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
-        <v>580</v>
+        <v>684</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>606</v>
+        <v>699</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>506</v>
+        <v>660</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>477</v>
+        <v>621</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="1" t="n">
         <f aca="false">A14-D14</f>
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="G14" s="5" t="n">
         <f aca="false">B14-D14</f>
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="H14" s="3" t="n">
         <f aca="false">C14-D14</f>
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
-        <v>569</v>
+        <v>672</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>604</v>
+        <v>700</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>536</v>
+        <v>655</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>480</v>
+        <v>619</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="1" t="n">
         <f aca="false">A15-D15</f>
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="G15" s="5" t="n">
         <f aca="false">B15-D15</f>
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="H15" s="3" t="n">
         <f aca="false">C15-D15</f>
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
-        <v>567</v>
+        <v>696</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>581</v>
+        <v>706</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>518</v>
+        <v>663</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>464</v>
+        <v>607</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F16" s="1" t="n">
         <f aca="false">A16-D16</f>
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="G16" s="5" t="n">
         <f aca="false">B16-D16</f>
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="H16" s="3" t="n">
         <f aca="false">C16-D16</f>
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <v>576</v>
+        <v>682</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>582</v>
+        <v>697</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>531</v>
+        <v>655</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>463</v>
+        <v>625</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F17" s="1" t="n">
         <f aca="false">A17-D17</f>
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="G17" s="5" t="n">
         <f aca="false">B17-D17</f>
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="H17" s="3" t="n">
         <f aca="false">C17-D17</f>
-        <v>68</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>580</v>
+        <v>690</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>602</v>
+        <v>700</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>525</v>
+        <v>644</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>476</v>
+        <v>619</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F18" s="1" t="n">
         <f aca="false">A18-D18</f>
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="G18" s="5" t="n">
         <f aca="false">B18-D18</f>
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="H18" s="3" t="n">
         <f aca="false">C18-D18</f>
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
-        <v>587</v>
+        <v>692</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>614</v>
+        <v>695</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>570</v>
+        <v>657</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>466</v>
+        <v>618</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F19" s="1" t="n">
         <f aca="false">A19-D19</f>
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="G19" s="5" t="n">
         <f aca="false">B19-D19</f>
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="H19" s="3" t="n">
         <f aca="false">C19-D19</f>
-        <v>104</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <v>601</v>
+        <v>686</v>
       </c>
       <c r="B20" s="2" t="n">
+        <v>706</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>652</v>
+      </c>
+      <c r="D20" s="4" t="n">
         <v>612</v>
-      </c>
-      <c r="C20" s="3" t="n">
-        <v>591</v>
-      </c>
-      <c r="D20" s="4" t="n">
-        <v>501</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F20" s="1" t="n">
         <f aca="false">A20-D20</f>
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="G20" s="5" t="n">
         <f aca="false">B20-D20</f>
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="H20" s="3" t="n">
         <f aca="false">C20-D20</f>
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>587</v>
+        <v>673</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>598</v>
+        <v>696</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>530</v>
+        <v>639</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>458</v>
+        <v>621</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F21" s="0" t="n">
         <f aca="false">AVERAGE(F1:F20)</f>
-        <v>113.35</v>
+        <v>62.05</v>
       </c>
       <c r="G21" s="0" t="n">
         <f aca="false">AVERAGE(G1:G20)</f>
-        <v>136.95</v>
+        <v>72.9</v>
       </c>
       <c r="H21" s="0" t="n">
         <f aca="false">AVERAGE(H1:H20)</f>
-        <v>57.55</v>
+        <v>36.65</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/GPTIVB4/rbg correctorexcel.xlsx
+++ b/GPTIVB4/rbg correctorexcel.xlsx
@@ -229,10 +229,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J42" activeCellId="0" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -242,85 +242,85 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="n">
-        <v>672</v>
+        <v>654</v>
       </c>
       <c r="B1" s="2" t="n">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="C1" s="3" t="n">
-        <v>645</v>
+        <v>670</v>
       </c>
       <c r="D1" s="4" t="n">
-        <v>616</v>
+        <v>634</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="n">
         <f aca="false">A1-D1</f>
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G1" s="5" t="n">
         <f aca="false">B1-D1</f>
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="H1" s="3" t="n">
         <f aca="false">C1-D1</f>
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>670</v>
+        <v>642</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>693</v>
+        <v>653</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>632</v>
+        <v>658</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="n">
         <f aca="false">A2-D2</f>
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="G2" s="5" t="n">
         <f aca="false">B2-D2</f>
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="H2" s="3" t="n">
         <f aca="false">C2-D2</f>
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>678</v>
+        <v>644</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>689</v>
+        <v>650</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="n">
         <f aca="false">A3-D3</f>
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="G3" s="5" t="n">
         <f aca="false">B3-D3</f>
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="H3" s="3" t="n">
         <f aca="false">C3-D3</f>
@@ -329,393 +329,393 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>650</v>
+        <v>680</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
         <f aca="false">A4-D4</f>
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G4" s="5" t="n">
         <f aca="false">B4-D4</f>
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H4" s="3" t="n">
         <f aca="false">C4-D4</f>
-        <v>33</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>674</v>
+        <v>613</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>689</v>
+        <v>622</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>628</v>
+        <v>597</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
         <f aca="false">A5-D5</f>
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="G5" s="5" t="n">
         <f aca="false">B5-D5</f>
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="H5" s="3" t="n">
         <f aca="false">C5-D5</f>
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>681</v>
+        <v>610</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>687</v>
+        <v>625</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>666</v>
+        <v>634</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>621</v>
+        <v>592</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="1" t="n">
         <f aca="false">A6-D6</f>
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="G6" s="5" t="n">
         <f aca="false">B6-D6</f>
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="H6" s="3" t="n">
         <f aca="false">C6-D6</f>
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>675</v>
+        <v>622</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>695</v>
+        <v>634</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>619</v>
+        <v>599</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F7" s="1" t="n">
         <f aca="false">A7-D7</f>
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="G7" s="5" t="n">
         <f aca="false">B7-D7</f>
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="H7" s="3" t="n">
         <f aca="false">C7-D7</f>
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>683</v>
+        <v>648</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>684</v>
+        <v>657</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="1" t="n">
         <f aca="false">A8-D8</f>
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="G8" s="5" t="n">
         <f aca="false">B8-D8</f>
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H8" s="3" t="n">
         <f aca="false">C8-D8</f>
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>696</v>
+        <v>652</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>690</v>
+        <v>662</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F9" s="1" t="n">
         <f aca="false">A9-D9</f>
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="G9" s="5" t="n">
         <f aca="false">B9-D9</f>
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="H9" s="3" t="n">
         <f aca="false">C9-D9</f>
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>693</v>
+        <v>639</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>698</v>
+        <v>651</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>689</v>
+        <v>652</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F10" s="1" t="n">
         <f aca="false">A10-D10</f>
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="G10" s="5" t="n">
         <f aca="false">B10-D10</f>
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="H10" s="3" t="n">
         <f aca="false">C10-D10</f>
-        <v>59</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>691</v>
+        <v>598</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>700</v>
+        <v>617</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>660</v>
+        <v>625</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>620</v>
+        <v>587</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="1" t="n">
         <f aca="false">A11-D11</f>
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="G11" s="5" t="n">
         <f aca="false">B11-D11</f>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="H11" s="3" t="n">
         <f aca="false">C11-D11</f>
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>685</v>
+        <v>580</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>689</v>
+        <v>598</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>649</v>
+        <v>604</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>619</v>
+        <v>556</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="1" t="n">
         <f aca="false">A12-D12</f>
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="G12" s="5" t="n">
         <f aca="false">B12-D12</f>
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="H12" s="3" t="n">
         <f aca="false">C12-D12</f>
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
-        <v>679</v>
+        <v>608</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>687</v>
+        <v>627</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>660</v>
+        <v>629</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>623</v>
+        <v>593</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="1" t="n">
         <f aca="false">A13-D13</f>
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="G13" s="5" t="n">
         <f aca="false">B13-D13</f>
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="H13" s="3" t="n">
         <f aca="false">C13-D13</f>
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
-        <v>684</v>
+        <v>634</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>699</v>
+        <v>643</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="1" t="n">
         <f aca="false">A14-D14</f>
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="G14" s="5" t="n">
         <f aca="false">B14-D14</f>
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="H14" s="3" t="n">
         <f aca="false">C14-D14</f>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
-        <v>672</v>
+        <v>635</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>700</v>
+        <v>653</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="1" t="n">
         <f aca="false">A15-D15</f>
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="G15" s="5" t="n">
         <f aca="false">B15-D15</f>
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="H15" s="3" t="n">
         <f aca="false">C15-D15</f>
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
-        <v>696</v>
+        <v>634</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>706</v>
+        <v>631</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>607</v>
+        <v>583</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F16" s="1" t="n">
         <f aca="false">A16-D16</f>
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="G16" s="5" t="n">
         <f aca="false">B16-D16</f>
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="H16" s="3" t="n">
         <f aca="false">C16-D16</f>
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <v>682</v>
+        <v>634</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>697</v>
+        <v>638</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>625</v>
+        <v>577</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>0</v>
@@ -726,127 +726,127 @@
       </c>
       <c r="G17" s="5" t="n">
         <f aca="false">B17-D17</f>
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="H17" s="3" t="n">
         <f aca="false">C17-D17</f>
-        <v>30</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>690</v>
+        <v>588</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>700</v>
+        <v>609</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>644</v>
+        <v>612</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>619</v>
+        <v>566</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F18" s="1" t="n">
         <f aca="false">A18-D18</f>
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="G18" s="5" t="n">
         <f aca="false">B18-D18</f>
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="H18" s="3" t="n">
         <f aca="false">C18-D18</f>
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
-        <v>692</v>
+        <v>591</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>695</v>
+        <v>606</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>657</v>
+        <v>616</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>618</v>
+        <v>572</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F19" s="1" t="n">
         <f aca="false">A19-D19</f>
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="G19" s="5" t="n">
         <f aca="false">B19-D19</f>
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="H19" s="3" t="n">
         <f aca="false">C19-D19</f>
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <v>686</v>
+        <v>611</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>706</v>
+        <v>625</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>652</v>
+        <v>634</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>612</v>
+        <v>588</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F20" s="1" t="n">
         <f aca="false">A20-D20</f>
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="G20" s="5" t="n">
         <f aca="false">B20-D20</f>
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="H20" s="3" t="n">
         <f aca="false">C20-D20</f>
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>639</v>
+        <v>694</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>621</v>
+        <v>653</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F21" s="0" t="n">
         <f aca="false">AVERAGE(F1:F20)</f>
-        <v>62.05</v>
+        <v>25.85</v>
       </c>
       <c r="G21" s="0" t="n">
         <f aca="false">AVERAGE(G1:G20)</f>
-        <v>72.9</v>
+        <v>38.05</v>
       </c>
       <c r="H21" s="0" t="n">
         <f aca="false">AVERAGE(H1:H20)</f>
-        <v>36.65</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -867,6 +867,167 @@
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>289</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E41" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E42" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>1173</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>1126</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>1154</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>1123</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>11123</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E43" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E44" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>1136</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>1119</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>1171</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E45" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>157</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="K45" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E46" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="K46" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E47" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
